--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_21_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2424681.706133156</v>
+        <v>2422268.793627352</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -1370,19 +1370,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
-        <v>30.05161693821614</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>307.5272957798211</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247633</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1591,7 +1591,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y13" t="n">
         <v>171.6095167335022</v>
@@ -1607,22 +1607,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>251.026723075</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,16 +1661,16 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>22.49561442740574</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5096953211452</v>
+        <v>220.0754532340886</v>
       </c>
       <c r="C17" t="n">
         <v>297.0487454286721</v>
@@ -1859,7 +1859,7 @@
         <v>342.697579311118</v>
       </c>
       <c r="H17" t="n">
-        <v>209.1575195692948</v>
+        <v>226.383618044985</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96361544584043</v>
+        <v>40.96361544584045</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>135.6938237972847</v>
       </c>
       <c r="U17" t="n">
         <v>182.7710256165666</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>259.5281121277995</v>
       </c>
       <c r="W17" t="n">
         <v>281.0168223750776</v>
@@ -1910,7 +1910,7 @@
         <v>301.5069543361336</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.0137923137182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,22 +2002,22 @@
         <v>111.6078338396019</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02267475629242</v>
+        <v>99.02267475629243</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39132667587694</v>
+        <v>80.39132667587695</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20981630423375</v>
+        <v>78.20981630423377</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19690168059583</v>
+        <v>77.19690168059584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80166191669281</v>
+        <v>97.80166191669282</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53086857198537</v>
+        <v>76.53086857198538</v>
       </c>
       <c r="I19" t="n">
         <v>28.12827406750269</v>
@@ -2087,10 +2087,10 @@
         <v>286.4588952783475</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7062237299264</v>
+        <v>239.9100887285285</v>
       </c>
       <c r="F20" t="n">
-        <v>338.651899399376</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>342.697579311118</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96361544584043</v>
+        <v>40.96361544584046</v>
       </c>
       <c r="T20" t="n">
         <v>135.6938237972848</v>
       </c>
       <c r="U20" t="n">
-        <v>71.82994555192607</v>
+        <v>182.7710256165666</v>
       </c>
       <c r="V20" t="n">
         <v>259.5281121277995</v>
@@ -2144,7 +2144,7 @@
         <v>281.0168223750776</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>301.5069543361336</v>
       </c>
       <c r="Y20" t="n">
         <v>318.0137923137182</v>
@@ -2239,25 +2239,25 @@
         <v>111.6078338396019</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02267475629242</v>
+        <v>99.02267475629243</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39132667587694</v>
+        <v>80.39132667587695</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20981630423375</v>
+        <v>78.20981630423377</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19690168059583</v>
+        <v>77.19690168059584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80166191669281</v>
+        <v>97.80166191669282</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53086857198537</v>
+        <v>76.53086857198538</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12827406750269</v>
+        <v>28.12827406750271</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70800632771193</v>
+        <v>20.70800632771194</v>
       </c>
       <c r="S22" t="n">
         <v>121.5448789891065</v>
@@ -2318,22 +2318,22 @@
         <v>314.5096953211452</v>
       </c>
       <c r="C23" t="n">
-        <v>297.0487454286722</v>
+        <v>297.0487454286721</v>
       </c>
       <c r="D23" t="n">
-        <v>286.4588952783476</v>
+        <v>286.4588952783475</v>
       </c>
       <c r="E23" t="n">
         <v>313.7062237299264</v>
       </c>
       <c r="F23" t="n">
-        <v>338.6518993993761</v>
+        <v>338.651899399376</v>
       </c>
       <c r="G23" t="n">
-        <v>342.6975793111181</v>
+        <v>342.697579311118</v>
       </c>
       <c r="H23" t="n">
-        <v>226.3836180449851</v>
+        <v>226.383618044985</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96361544584049</v>
+        <v>40.96361544584045</v>
       </c>
       <c r="T23" t="n">
-        <v>135.6938237972848</v>
+        <v>135.6938237972847</v>
       </c>
       <c r="U23" t="n">
         <v>182.7710256165666</v>
@@ -2378,10 +2378,10 @@
         <v>259.5281121277995</v>
       </c>
       <c r="W23" t="n">
-        <v>281.0168223750777</v>
+        <v>281.0168223750776</v>
       </c>
       <c r="X23" t="n">
-        <v>301.5069543361337</v>
+        <v>301.5069543361336</v>
       </c>
       <c r="Y23" t="n">
         <v>318.0137923137182</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247735</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>111.6078338396019</v>
       </c>
       <c r="C25" t="n">
-        <v>99.02267475629247</v>
+        <v>99.02267475629243</v>
       </c>
       <c r="D25" t="n">
-        <v>80.391326675877</v>
+        <v>80.39132667587695</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20981630423381</v>
+        <v>78.20981630423377</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19690168059589</v>
+        <v>77.19690168059584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80166191669286</v>
+        <v>97.80166191669282</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53086857198542</v>
+        <v>76.53086857198538</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12827406750275</v>
+        <v>28.12827406750269</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70800632771198</v>
+        <v>20.70800632771193</v>
       </c>
       <c r="S25" t="n">
         <v>121.5448789891065</v>
@@ -2530,7 +2530,7 @@
         <v>151.3248029338338</v>
       </c>
       <c r="U25" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632774</v>
       </c>
       <c r="V25" t="n">
         <v>183.9134969814926</v>
@@ -2539,7 +2539,7 @@
         <v>218.2988519942556</v>
       </c>
       <c r="X25" t="n">
-        <v>157.4855090467018</v>
+        <v>157.4855090467017</v>
       </c>
       <c r="Y25" t="n">
         <v>150.3605070097594</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687276</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2956,16 +2956,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
         <v>49.37728379124554</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.245649844157</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007101</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538323</v>
+        <v>133.1067657762822</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052301</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010753</v>
       </c>
       <c r="E37" t="n">
-        <v>90.95618068285853</v>
+        <v>48.74924241846435</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482642</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309234</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621596</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333707</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.89993312399</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353758</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925779</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441559</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007078</v>
+        <v>11.50304156007101</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307969</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420301</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893082</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279488</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>124.3541982182249</v>
       </c>
       <c r="C40" t="n">
-        <v>121.8539065112418</v>
+        <v>69.56210087052301</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010729</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846411</v>
+        <v>48.74924241846435</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482618</v>
+        <v>47.73632779482642</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092316</v>
+        <v>68.3410880309234</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621572</v>
+        <v>47.07029468621596</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333685</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480644</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084862</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>120.89993312399</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>310.7752483302253</v>
+        <v>310.7752483302255</v>
       </c>
       <c r="C41" t="n">
-        <v>293.3142984377523</v>
+        <v>293.3142984377525</v>
       </c>
       <c r="D41" t="n">
-        <v>282.7244482874277</v>
+        <v>282.7244482874279</v>
       </c>
       <c r="E41" t="n">
-        <v>309.9717767390065</v>
+        <v>309.9717767390067</v>
       </c>
       <c r="F41" t="n">
-        <v>334.9174524084561</v>
+        <v>334.9174524084564</v>
       </c>
       <c r="G41" t="n">
-        <v>338.9631323201982</v>
+        <v>201.4465268463658</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6491710540652</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.22916845492058</v>
+        <v>37.22916845492074</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>131.9593768063651</v>
       </c>
       <c r="U41" t="n">
-        <v>179.0365786256467</v>
+        <v>179.0365786256469</v>
       </c>
       <c r="V41" t="n">
-        <v>27.58726541534831</v>
+        <v>255.7936651368798</v>
       </c>
       <c r="W41" t="n">
-        <v>277.2823753841577</v>
+        <v>277.2823753841579</v>
       </c>
       <c r="X41" t="n">
-        <v>297.7725073452137</v>
+        <v>297.772507345214</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2793453227983</v>
+        <v>314.2793453227985</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.873386848682</v>
+        <v>107.8733868486822</v>
       </c>
       <c r="C43" t="n">
-        <v>95.28822776537255</v>
+        <v>95.28822776537275</v>
       </c>
       <c r="D43" t="n">
-        <v>76.65687968495708</v>
+        <v>76.65687968495727</v>
       </c>
       <c r="E43" t="n">
-        <v>74.47536931331389</v>
+        <v>74.47536931331409</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46245468967597</v>
+        <v>73.46245468967616</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06721492577294</v>
+        <v>94.06721492577314</v>
       </c>
       <c r="H43" t="n">
-        <v>72.7964215810655</v>
+        <v>72.7964215810657</v>
       </c>
       <c r="I43" t="n">
-        <v>24.39382707658283</v>
+        <v>24.39382707658302</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.97355933679206</v>
+        <v>48.3862155723323</v>
       </c>
       <c r="S43" t="n">
-        <v>117.8104319981866</v>
+        <v>117.8104319981868</v>
       </c>
       <c r="T43" t="n">
-        <v>179.0030121784573</v>
+        <v>147.5903559429141</v>
       </c>
       <c r="U43" t="n">
-        <v>214.2532448723576</v>
+        <v>214.2532448723578</v>
       </c>
       <c r="V43" t="n">
-        <v>180.1790499905727</v>
+        <v>180.1790499905729</v>
       </c>
       <c r="W43" t="n">
-        <v>214.5644050033357</v>
+        <v>214.5644050033359</v>
       </c>
       <c r="X43" t="n">
-        <v>153.7510620557819</v>
+        <v>153.7510620557821</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6260600188395</v>
+        <v>146.6260600188397</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.7752483302253</v>
+        <v>310.7752483302255</v>
       </c>
       <c r="C44" t="n">
-        <v>293.3142984377523</v>
+        <v>293.3142984377525</v>
       </c>
       <c r="D44" t="n">
-        <v>282.7244482874277</v>
+        <v>282.7244482874279</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9717767390065</v>
+        <v>284.723452619565</v>
       </c>
       <c r="F44" t="n">
-        <v>334.9174524084561</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>338.9631323201982</v>
+        <v>338.9631323201984</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6491710540652</v>
+        <v>222.6491710540654</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.22916845492058</v>
+        <v>37.22916845492074</v>
       </c>
       <c r="T44" t="n">
-        <v>131.9593768063649</v>
+        <v>131.9593768063651</v>
       </c>
       <c r="U44" t="n">
-        <v>179.0365786256467</v>
+        <v>179.0365786256469</v>
       </c>
       <c r="V44" t="n">
-        <v>255.7936651368796</v>
+        <v>255.7936651368798</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>277.2823753841579</v>
       </c>
       <c r="X44" t="n">
-        <v>214.8891062014744</v>
+        <v>297.772507345214</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.2793453227983</v>
+        <v>314.2793453227985</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247633</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>139.2860430842251</v>
+        <v>107.8733868486822</v>
       </c>
       <c r="C46" t="n">
-        <v>95.28822776537255</v>
+        <v>95.28822776537275</v>
       </c>
       <c r="D46" t="n">
-        <v>76.65687968495708</v>
+        <v>76.65687968495727</v>
       </c>
       <c r="E46" t="n">
-        <v>74.47536931331389</v>
+        <v>74.47536931331409</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967597</v>
+        <v>73.46245468967616</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06721492577294</v>
+        <v>94.06721492577314</v>
       </c>
       <c r="H46" t="n">
-        <v>72.7964215810655</v>
+        <v>72.7964215810657</v>
       </c>
       <c r="I46" t="n">
-        <v>24.39382707658283</v>
+        <v>24.39382707658302</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.97355933679206</v>
+        <v>16.97355933679225</v>
       </c>
       <c r="S46" t="n">
-        <v>117.8104319981866</v>
+        <v>117.8104319981868</v>
       </c>
       <c r="T46" t="n">
-        <v>147.5903559429139</v>
+        <v>147.5903559429141</v>
       </c>
       <c r="U46" t="n">
-        <v>214.2532448723576</v>
+        <v>214.2532448723578</v>
       </c>
       <c r="V46" t="n">
-        <v>180.1790499905727</v>
+        <v>180.1790499905729</v>
       </c>
       <c r="W46" t="n">
-        <v>214.5644050033357</v>
+        <v>245.9770612388761</v>
       </c>
       <c r="X46" t="n">
-        <v>153.7510620557819</v>
+        <v>153.7510620557821</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6260600188395</v>
+        <v>146.6260600188397</v>
       </c>
     </row>
   </sheetData>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2018.472742224994</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232655</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>684.268901082273</v>
       </c>
       <c r="F11" t="n">
         <v>684.268901082273</v>
@@ -5033,16 +5033,16 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5063,28 +5063,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3232.409617459877</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>3026.328773681787</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V11" t="n">
-        <v>3026.328773681787</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W11" t="n">
-        <v>3026.328773681787</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X11" t="n">
-        <v>2700.312648368781</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y11" t="n">
-        <v>2357.622949341042</v>
+        <v>1672.57379350717</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254606</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611986</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268788</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770418</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>771.697886033711</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5218,31 +5218,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
         <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874605</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1768.338774781834</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="C14" t="n">
-        <v>1446.825890789496</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="D14" t="n">
-        <v>1136.009825130819</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="E14" t="n">
-        <v>797.6712054806479</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>434.1349336391136</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810543</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U14" t="n">
-        <v>3081.513828560668</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V14" t="n">
-        <v>3081.513828560668</v>
+        <v>2614.542573243045</v>
       </c>
       <c r="W14" t="n">
-        <v>2776.194806238627</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X14" t="n">
-        <v>2450.178680925621</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y14" t="n">
-        <v>2107.488981897883</v>
+        <v>1640.517726580259</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5379,28 +5379,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052937</v>
       </c>
       <c r="C16" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254601</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611977</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268788</v>
+        <v>434.849232726878</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770415</v>
+        <v>335.408918177041</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998333</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657649</v>
+        <v>116.3881606657644</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5452,34 +5452,34 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874601</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1872.290765641007</v>
+        <v>1889.690865111401</v>
       </c>
       <c r="C17" t="n">
-        <v>1572.241527834268</v>
+        <v>1589.641627304661</v>
       </c>
       <c r="D17" t="n">
-        <v>1282.889108361189</v>
+        <v>1300.289207831583</v>
       </c>
       <c r="E17" t="n">
-        <v>966.0141348966172</v>
+        <v>983.4142343670105</v>
       </c>
       <c r="F17" t="n">
-        <v>623.9415092406819</v>
+        <v>641.3416087110751</v>
       </c>
       <c r="G17" t="n">
-        <v>277.7823382193499</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
@@ -5531,34 +5531,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3284.228432269937</v>
+        <v>3284.228432269938</v>
       </c>
       <c r="T17" t="n">
-        <v>3284.228432269937</v>
+        <v>3147.163963787832</v>
       </c>
       <c r="U17" t="n">
-        <v>3099.611234677446</v>
+        <v>2962.54676619534</v>
       </c>
       <c r="V17" t="n">
-        <v>3099.611234677446</v>
+        <v>2700.397157985441</v>
       </c>
       <c r="W17" t="n">
-        <v>2815.755858541004</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X17" t="n">
-        <v>2511.203379413596</v>
+        <v>2111.989302721591</v>
       </c>
       <c r="Y17" t="n">
-        <v>2189.977326571457</v>
+        <v>2111.989302721591</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5580,46 +5580,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
         <v>2242.828302297192</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.2207265061024</v>
+        <v>609.2207265061026</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1978227118676</v>
+        <v>509.1978227118678</v>
       </c>
       <c r="D19" t="n">
-        <v>427.994462433204</v>
+        <v>427.9944624332042</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9946479844831</v>
+        <v>348.9946479844832</v>
       </c>
       <c r="F19" t="n">
         <v>271.0179796202449</v>
@@ -5665,25 +5665,25 @@
         <v>172.228422128636</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92451448016593</v>
+        <v>94.92451448016594</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>1004.963518925712</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.371895631577</v>
       </c>
       <c r="O19" t="n">
         <v>1645.70149455199</v>
@@ -5704,7 +5704,7 @@
         <v>1659.376171693061</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.186583952376</v>
+        <v>1439.186583952377</v>
       </c>
       <c r="V19" t="n">
         <v>1253.415374880162</v>
@@ -5713,10 +5713,10 @@
         <v>1032.911483976873</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8352122125279</v>
+        <v>873.8352122125281</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.95591220267</v>
+        <v>721.9559122026701</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1889.6908651114</v>
+        <v>1473.076688949003</v>
       </c>
       <c r="C20" t="n">
-        <v>1589.641627304661</v>
+        <v>1173.027451142264</v>
       </c>
       <c r="D20" t="n">
-        <v>1300.289207831583</v>
+        <v>883.6750316691857</v>
       </c>
       <c r="E20" t="n">
-        <v>983.414234367011</v>
+        <v>641.3416087110754</v>
       </c>
       <c r="F20" t="n">
-        <v>641.3416087110752</v>
+        <v>641.3416087110754</v>
       </c>
       <c r="G20" t="n">
         <v>295.1824376897441</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5762,7 +5762,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5774,28 +5774,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3284.228432269937</v>
+        <v>3284.228432269938</v>
       </c>
       <c r="T20" t="n">
         <v>3147.163963787832</v>
       </c>
       <c r="U20" t="n">
-        <v>3074.60846323033</v>
+        <v>2962.546766195341</v>
       </c>
       <c r="V20" t="n">
-        <v>2812.458855020432</v>
+        <v>2700.397157985442</v>
       </c>
       <c r="W20" t="n">
-        <v>2528.60347888399</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X20" t="n">
-        <v>2528.60347888399</v>
+        <v>2111.989302721593</v>
       </c>
       <c r="Y20" t="n">
-        <v>2207.37742604185</v>
+        <v>1790.763249879453</v>
       </c>
     </row>
     <row r="21">
@@ -5826,16 +5826,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.2207265061024</v>
+        <v>609.2207265061026</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1978227118676</v>
+        <v>509.1978227118678</v>
       </c>
       <c r="D22" t="n">
-        <v>427.994462433204</v>
+        <v>427.9944624332042</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9946479844831</v>
+        <v>348.9946479844832</v>
       </c>
       <c r="F22" t="n">
-        <v>271.0179796202449</v>
+        <v>271.017979620245</v>
       </c>
       <c r="G22" t="n">
-        <v>172.228422128636</v>
+        <v>172.2284221286361</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92451448016593</v>
+        <v>94.92451448016595</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>140.259491928791</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>344.2466748776673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>660.8064733261634</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>1004.963518925712</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.371895631577</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1645.70149455199</v>
+        <v>1645.701494551991</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.308994985649</v>
+        <v>1878.30899498565</v>
       </c>
       <c r="Q22" t="n">
         <v>1955.919291138164</v>
@@ -5941,7 +5941,7 @@
         <v>1659.376171693061</v>
       </c>
       <c r="U22" t="n">
-        <v>1439.186583952376</v>
+        <v>1439.186583952377</v>
       </c>
       <c r="V22" t="n">
         <v>1253.415374880162</v>
@@ -5950,10 +5950,10 @@
         <v>1032.911483976873</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8352122125279</v>
+        <v>873.8352122125281</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.95591220267</v>
+        <v>721.9559122026701</v>
       </c>
     </row>
     <row r="23">
@@ -5969,55 +5969,55 @@
         <v>1598.143957430425</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.791537957346</v>
+        <v>1308.791537957347</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9165644927742</v>
+        <v>991.9165644927746</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8439388368388</v>
+        <v>649.8439388368392</v>
       </c>
       <c r="G23" t="n">
-        <v>303.6847678155074</v>
+        <v>303.6847678155073</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01444655794667</v>
+        <v>75.01444655794664</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01444655794667</v>
+        <v>75.01444655794664</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7358821967068</v>
+        <v>361.9270325896023</v>
       </c>
       <c r="K23" t="n">
-        <v>619.5552558865531</v>
+        <v>695.7464062794488</v>
       </c>
       <c r="L23" t="n">
-        <v>1070.589469134962</v>
+        <v>1146.780619527858</v>
       </c>
       <c r="M23" t="n">
-        <v>1998.893245289552</v>
+        <v>1680.312524199782</v>
       </c>
       <c r="N23" t="n">
-        <v>2545.672062348334</v>
+        <v>2227.091341258565</v>
       </c>
       <c r="O23" t="n">
-        <v>3048.644533227671</v>
+        <v>2730.063812137902</v>
       </c>
       <c r="P23" t="n">
-        <v>3443.418899584849</v>
+        <v>3443.418899584847</v>
       </c>
       <c r="Q23" t="n">
-        <v>3691.705261340531</v>
+        <v>3691.705261340529</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.722327897333</v>
+        <v>3750.722327897332</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.3449385581</v>
+        <v>3709.344938558099</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.280470075994</v>
+        <v>3572.280470075993</v>
       </c>
       <c r="U23" t="n">
         <v>3387.663272483502</v>
@@ -6042,40 +6042,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.0461846068719</v>
+        <v>950.0461846068717</v>
       </c>
       <c r="C24" t="n">
-        <v>775.5931553257449</v>
+        <v>775.5931553257448</v>
       </c>
       <c r="D24" t="n">
-        <v>626.6587456644936</v>
+        <v>626.6587456644935</v>
       </c>
       <c r="E24" t="n">
-        <v>467.4212906590382</v>
+        <v>467.421290659038</v>
       </c>
       <c r="F24" t="n">
-        <v>320.8867326859231</v>
+        <v>320.886732685923</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5236325185412</v>
+        <v>184.5236325185411</v>
       </c>
       <c r="H24" t="n">
-        <v>94.02173815640873</v>
+        <v>94.02173815640862</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01444655794667</v>
+        <v>75.01444655794664</v>
       </c>
       <c r="J24" t="n">
-        <v>168.6917160485644</v>
+        <v>168.691716048564</v>
       </c>
       <c r="K24" t="n">
-        <v>406.9559150289115</v>
+        <v>406.9559150289111</v>
       </c>
       <c r="L24" t="n">
-        <v>773.6540753415768</v>
+        <v>773.6540753415766</v>
       </c>
       <c r="M24" t="n">
-        <v>1220.930400563893</v>
+        <v>1220.930400563892</v>
       </c>
       <c r="N24" t="n">
         <v>1694.453444118347</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7230566318661</v>
+        <v>617.7230566318658</v>
       </c>
       <c r="C25" t="n">
-        <v>517.7001528376313</v>
+        <v>517.700152837631</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4967925589676</v>
+        <v>436.4967925589673</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4969781102466</v>
+        <v>357.4969781102463</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5203097460083</v>
+        <v>279.5203097460081</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7307522543994</v>
+        <v>180.7307522543992</v>
       </c>
       <c r="H25" t="n">
         <v>103.4268446059292</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01444655794667</v>
+        <v>75.01444655794664</v>
       </c>
       <c r="J25" t="n">
         <v>120.1370790048822</v>
       </c>
       <c r="K25" t="n">
-        <v>324.1242619537585</v>
+        <v>324.1242619537586</v>
       </c>
       <c r="L25" t="n">
-        <v>640.6840604022545</v>
+        <v>640.6840604022548</v>
       </c>
       <c r="M25" t="n">
-        <v>984.8411060018035</v>
+        <v>984.8411060018038</v>
       </c>
       <c r="N25" t="n">
-        <v>1326.249482707668</v>
+        <v>1354.87422575734</v>
       </c>
       <c r="O25" t="n">
-        <v>1625.579081628081</v>
+        <v>1654.203824677753</v>
       </c>
       <c r="P25" t="n">
-        <v>1858.186582061741</v>
+        <v>1886.811325111413</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.421621263928</v>
+        <v>1964.421621263927</v>
       </c>
       <c r="R25" t="n">
         <v>1943.504443155128</v>
@@ -6175,7 +6175,7 @@
         <v>1820.731838115626</v>
       </c>
       <c r="T25" t="n">
-        <v>1667.878501818825</v>
+        <v>1667.878501818824</v>
       </c>
       <c r="U25" t="n">
         <v>1447.68891407814</v>
@@ -6184,13 +6184,13 @@
         <v>1261.917705005925</v>
       </c>
       <c r="W25" t="n">
-        <v>1041.413814102637</v>
+        <v>1041.413814102636</v>
       </c>
       <c r="X25" t="n">
-        <v>882.3375423382918</v>
+        <v>882.3375423382913</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4582423284338</v>
+        <v>730.4582423284334</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6212,61 +6212,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>924.7493799910139</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1375.783593239423</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1909.315497911347</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2456.094314970129</v>
+        <v>2580.208754682581</v>
       </c>
       <c r="O26" t="n">
-        <v>3036.687329075027</v>
+        <v>3083.181225561918</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6300,31 +6300,31 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6403,7 +6403,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R28" t="n">
         <v>2271.591606277852</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519665</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467796</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398484</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.879634793969</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058812</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285458</v>
+        <v>2642.103738532153</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164795</v>
+        <v>3145.07620941149</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
         <v>449.4840331913842</v>
@@ -6616,19 +6616,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689498</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467779</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>887.9771891384787</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1339.011402386887</v>
+        <v>1119.741581677075</v>
       </c>
       <c r="M32" t="n">
-        <v>1872.543307058812</v>
+        <v>1653.273486349</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2200.052303407782</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833284</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805546</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6753,43 +6753,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6822,7 +6822,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="34">
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6877,31 +6877,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="35">
@@ -6914,73 +6914,73 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307338</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="36">
@@ -6990,64 +6990,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J36" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>543.5641013650713</v>
+        <v>402.2593958170932</v>
       </c>
       <c r="C37" t="n">
-        <v>473.2993530110078</v>
+        <v>331.9946474630295</v>
       </c>
       <c r="D37" t="n">
-        <v>421.8541481725156</v>
+        <v>280.5494426245371</v>
       </c>
       <c r="E37" t="n">
-        <v>329.9792181898302</v>
+        <v>231.3077836159873</v>
       </c>
       <c r="F37" t="n">
-        <v>281.7607052657632</v>
+        <v>183.0892706919202</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1744.44964124669</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U37" t="n">
-        <v>1224.739181610489</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V37" t="n">
-        <v>1068.726127978445</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W37" t="n">
-        <v>877.980392515328</v>
+        <v>788.1499352728554</v>
       </c>
       <c r="X37" t="n">
-        <v>748.6622761911542</v>
+        <v>658.8318189486813</v>
       </c>
       <c r="Y37" t="n">
-        <v>626.5411316214676</v>
+        <v>536.7106743789944</v>
       </c>
     </row>
     <row r="38">
@@ -7148,73 +7148,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470372</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103804</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307331</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960651</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,10 +7269,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.4050786964424</v>
+        <v>500.9308303909365</v>
       </c>
       <c r="C40" t="n">
-        <v>429.320324644683</v>
+        <v>430.6660820368728</v>
       </c>
       <c r="D40" t="n">
-        <v>377.8751198061908</v>
+        <v>280.5494426245371</v>
       </c>
       <c r="E40" t="n">
-        <v>328.6334607976411</v>
+        <v>231.3077836159873</v>
       </c>
       <c r="F40" t="n">
-        <v>280.4149478735743</v>
+        <v>183.0892706919201</v>
       </c>
       <c r="G40" t="n">
-        <v>211.3835458221368</v>
+        <v>114.0578686404824</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1744.44964124669</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1621.35446039006</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U40" t="n">
-        <v>1430.923028089547</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V40" t="n">
-        <v>1274.909974457503</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W40" t="n">
-        <v>1084.164238994386</v>
+        <v>976.6518270891709</v>
       </c>
       <c r="X40" t="n">
-        <v>954.8461226702123</v>
+        <v>748.6622761911535</v>
       </c>
       <c r="Y40" t="n">
-        <v>734.0535435266821</v>
+        <v>626.5411316214667</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1867.05785304522</v>
+        <v>1503.254038370576</v>
       </c>
       <c r="C41" t="n">
-        <v>1570.780783916177</v>
+        <v>1206.976969241533</v>
       </c>
       <c r="D41" t="n">
-        <v>1285.200533120796</v>
+        <v>921.3967184461517</v>
       </c>
       <c r="E41" t="n">
-        <v>972.0977283339204</v>
+        <v>608.2939136592763</v>
       </c>
       <c r="F41" t="n">
-        <v>633.7972713556818</v>
+        <v>269.9934566810379</v>
       </c>
       <c r="G41" t="n">
-        <v>291.4102690120472</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3288.000600947634</v>
+        <v>3288.000600947636</v>
       </c>
       <c r="T41" t="n">
-        <v>3288.000600947634</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U41" t="n">
-        <v>3107.155572032839</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V41" t="n">
-        <v>3079.289647370872</v>
+        <v>2715.485832696229</v>
       </c>
       <c r="W41" t="n">
-        <v>2799.206439912126</v>
+        <v>2435.402625237483</v>
       </c>
       <c r="X41" t="n">
-        <v>2498.426129462415</v>
+        <v>2134.622314787772</v>
       </c>
       <c r="Y41" t="n">
-        <v>2180.972245297973</v>
+        <v>1817.168430623329</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,10 +7506,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.8155457622246</v>
+        <v>582.8155457622261</v>
       </c>
       <c r="C43" t="n">
-        <v>486.5648106456866</v>
+        <v>486.5648106456879</v>
       </c>
       <c r="D43" t="n">
-        <v>409.1336190447199</v>
+        <v>409.133619044721</v>
       </c>
       <c r="E43" t="n">
-        <v>333.9059732736958</v>
+        <v>333.9059732736966</v>
       </c>
       <c r="F43" t="n">
-        <v>259.7014735871544</v>
+        <v>259.7014735871551</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6840847732423</v>
+        <v>164.6840847732428</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15234580246909</v>
+        <v>91.15234580246931</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1910.149538657389</v>
+        <v>1878.419582863915</v>
       </c>
       <c r="S43" t="n">
-        <v>1791.149102295584</v>
+        <v>1759.41914650211</v>
       </c>
       <c r="T43" t="n">
-        <v>1610.337978883001</v>
+        <v>1610.337978883005</v>
       </c>
       <c r="U43" t="n">
-        <v>1393.920559820014</v>
+        <v>1393.920559820017</v>
       </c>
       <c r="V43" t="n">
-        <v>1211.921519425496</v>
+        <v>1211.921519425499</v>
       </c>
       <c r="W43" t="n">
-        <v>995.1897971999047</v>
+        <v>995.1897971999069</v>
       </c>
       <c r="X43" t="n">
-        <v>839.8856941132564</v>
+        <v>839.8856941132583</v>
       </c>
       <c r="Y43" t="n">
-        <v>691.7785627810953</v>
+        <v>691.778562781097</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1867.05785304522</v>
+        <v>1503.254038370577</v>
       </c>
       <c r="C44" t="n">
-        <v>1570.780783916177</v>
+        <v>1206.976969241534</v>
       </c>
       <c r="D44" t="n">
-        <v>1285.200533120796</v>
+        <v>921.3967184461519</v>
       </c>
       <c r="E44" t="n">
-        <v>972.0977283339204</v>
+        <v>633.7972713556821</v>
       </c>
       <c r="F44" t="n">
-        <v>633.7972713556818</v>
+        <v>633.7972713556821</v>
       </c>
       <c r="G44" t="n">
-        <v>291.4102690120472</v>
+        <v>291.4102690120475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3288.000600947634</v>
+        <v>3288.000600947636</v>
       </c>
       <c r="T44" t="n">
-        <v>3154.708301143225</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U44" t="n">
-        <v>2973.86327222843</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V44" t="n">
-        <v>2715.485832696228</v>
+        <v>2715.485832696229</v>
       </c>
       <c r="W44" t="n">
-        <v>2715.485832696228</v>
+        <v>2435.402625237483</v>
       </c>
       <c r="X44" t="n">
-        <v>2498.426129462415</v>
+        <v>2134.622314787772</v>
       </c>
       <c r="Y44" t="n">
-        <v>2180.972245297973</v>
+        <v>1817.16843062333</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,31 +7743,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
         <v>1109.759191501176</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.8155457622246</v>
+        <v>582.8155457622261</v>
       </c>
       <c r="C46" t="n">
-        <v>486.5648106456866</v>
+        <v>486.5648106456879</v>
       </c>
       <c r="D46" t="n">
-        <v>409.1336190447199</v>
+        <v>409.133619044721</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9059732736958</v>
+        <v>333.9059732736966</v>
       </c>
       <c r="F46" t="n">
-        <v>259.7014735871544</v>
+        <v>259.7014735871551</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6840847732423</v>
+        <v>164.6840847732428</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15234580246909</v>
+        <v>91.15234580246931</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,7 +7825,7 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
         <v>1910.149538657389</v>
@@ -7834,7 +7834,7 @@
         <v>1791.149102295584</v>
       </c>
       <c r="T46" t="n">
-        <v>1642.06793467648</v>
+        <v>1642.067934676479</v>
       </c>
       <c r="U46" t="n">
         <v>1425.650515613492</v>
@@ -7843,13 +7843,13 @@
         <v>1243.651475218974</v>
       </c>
       <c r="W46" t="n">
-        <v>1026.919752993383</v>
+        <v>995.1897971999069</v>
       </c>
       <c r="X46" t="n">
-        <v>871.6156499067342</v>
+        <v>839.8856941132583</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.5085185745731</v>
+        <v>691.778562781097</v>
       </c>
     </row>
   </sheetData>
@@ -8465,7 +8465,7 @@
         <v>187.8656757253948</v>
       </c>
       <c r="O8" t="n">
-        <v>190.8661912001296</v>
+        <v>190.8661912001295</v>
       </c>
       <c r="P8" t="n">
         <v>197.7493741610373</v>
@@ -8535,13 +8535,13 @@
         <v>117.723875248454</v>
       </c>
       <c r="L9" t="n">
-        <v>111.5038326888313</v>
+        <v>111.5038326888312</v>
       </c>
       <c r="M9" t="n">
         <v>110.56732135865</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809739</v>
+        <v>98.93952256809737</v>
       </c>
       <c r="O9" t="n">
         <v>112.9545713195519</v>
@@ -8626,7 +8626,7 @@
         <v>123.6934388297868</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0956219182091</v>
+        <v>125.095621918209</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>22.06293401993406</v>
+        <v>99.02369199255583</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>398.7594661441068</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9875,25 +9875,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>78.40458911672886</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>62.52018570663836</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>287.001785447392</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>62.52018570663824</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>117.9051702753179</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>65.51711806374288</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>5.329070518200751e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>126.8912165828114</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>31.73550625763981</v>
       </c>
     </row>
     <row r="12">
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>83.92851037866919</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>181.5244209129037</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>94.43424208705659</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>17.22609847569021</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>135.6938237972848</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>259.5281121277995</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>318.0137923137182</v>
       </c>
     </row>
     <row r="18">
@@ -23975,10 +23975,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>73.79613500139786</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>338.651899399376</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>110.9410800646405</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>301.5069543361336</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -25397,7 +25397,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25640,10 +25640,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>137.5166054738326</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>222.6491710540654</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25679,13 +25679,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>131.9593768063649</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>228.2063997215313</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25871,10 +25871,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>25.24832411944168</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>334.9174524084564</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25925,10 +25925,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>277.2823753841577</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>82.88340114373933</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>720000.0074133632</v>
+        <v>720000.0074133633</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>741903.9116167919</v>
+        <v>741903.9116167917</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>789858.6284925762</v>
+        <v>789858.6284925761</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>745753.4542639719</v>
+        <v>745753.4542639718</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>745753.4542639719</v>
+        <v>745753.4542639718</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26314,19 @@
         <v>675902.9794415567</v>
       </c>
       <c r="C2" t="n">
-        <v>675902.9794415566</v>
+        <v>675902.979441557</v>
       </c>
       <c r="D2" t="n">
         <v>675918.2704729637</v>
       </c>
       <c r="E2" t="n">
-        <v>630738.0831591203</v>
+        <v>630738.0831591204</v>
       </c>
       <c r="F2" t="n">
         <v>630738.0831591203</v>
       </c>
       <c r="G2" t="n">
-        <v>650273.9977189355</v>
+        <v>650273.9977189351</v>
       </c>
       <c r="H2" t="n">
         <v>650273.9977189359</v>
@@ -26335,25 +26335,25 @@
         <v>677359.4601380343</v>
       </c>
       <c r="J2" t="n">
+        <v>677359.460138034</v>
+      </c>
+      <c r="K2" t="n">
+        <v>677359.4601380337</v>
+      </c>
+      <c r="L2" t="n">
         <v>677359.4601380338</v>
       </c>
-      <c r="K2" t="n">
-        <v>677359.4601380335</v>
-      </c>
-      <c r="L2" t="n">
-        <v>677359.4601380335</v>
-      </c>
       <c r="M2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="N2" t="n">
-        <v>677359.4601380344</v>
+        <v>677359.4601380341</v>
       </c>
       <c r="O2" t="n">
-        <v>653707.3735934476</v>
+        <v>653707.3735934475</v>
       </c>
       <c r="P2" t="n">
-        <v>653707.3735934475</v>
+        <v>653707.3735934477</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.9900426505</v>
+        <v>49603.99004265054</v>
       </c>
       <c r="E3" t="n">
         <v>1114814.601112466</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.20777899427</v>
+        <v>16999.20777899425</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.8516171636</v>
+        <v>28261.85161716371</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.45238225407</v>
+        <v>40637.45238225418</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>438929.2150975101</v>
       </c>
       <c r="E4" t="n">
-        <v>60655.33327364781</v>
+        <v>60655.33327364783</v>
       </c>
       <c r="F4" t="n">
-        <v>60655.3332736478</v>
+        <v>60655.33327364783</v>
       </c>
       <c r="G4" t="n">
-        <v>74063.98968944928</v>
+        <v>74063.98968944923</v>
       </c>
       <c r="H4" t="n">
         <v>74063.98968944926</v>
       </c>
       <c r="I4" t="n">
-        <v>91700.40398688408</v>
+        <v>91700.40398688399</v>
       </c>
       <c r="J4" t="n">
-        <v>91012.35309462837</v>
+        <v>91012.35309462827</v>
       </c>
       <c r="K4" t="n">
-        <v>91012.35309462833</v>
+        <v>91012.35309462827</v>
       </c>
       <c r="L4" t="n">
-        <v>91012.35309462828</v>
+        <v>91012.35309462827</v>
       </c>
       <c r="M4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319394</v>
       </c>
       <c r="N4" t="n">
-        <v>92793.84288319414</v>
+        <v>92793.84288319397</v>
       </c>
       <c r="O4" t="n">
-        <v>76430.40983090387</v>
+        <v>76430.40983090372</v>
       </c>
       <c r="P4" t="n">
-        <v>76430.40983090387</v>
+        <v>76430.40983090372</v>
       </c>
     </row>
     <row r="5">
@@ -26479,16 +26479,16 @@
         <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="G5" t="n">
-        <v>80041.87632024707</v>
+        <v>80041.87632024709</v>
       </c>
       <c r="H5" t="n">
-        <v>80041.87632024707</v>
+        <v>80041.87632024709</v>
       </c>
       <c r="I5" t="n">
-        <v>86503.64721582715</v>
+        <v>86503.64721582714</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26497,10 +26497,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624984</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>184500.0186160193</v>
+        <v>184495.6050381511</v>
       </c>
       <c r="C6" t="n">
-        <v>184500.0186160191</v>
+        <v>184495.6050381514</v>
       </c>
       <c r="D6" t="n">
-        <v>152494.7968302683</v>
+        <v>152490.429588859</v>
       </c>
       <c r="E6" t="n">
-        <v>-622987.3445487751</v>
+        <v>-623128.6214487114</v>
       </c>
       <c r="F6" t="n">
-        <v>491827.2565636907</v>
+        <v>491685.9796637546</v>
       </c>
       <c r="G6" t="n">
-        <v>479168.9239302449</v>
+        <v>479086.8467713989</v>
       </c>
       <c r="H6" t="n">
-        <v>496168.1317092397</v>
+        <v>496086.054550394</v>
       </c>
       <c r="I6" t="n">
-        <v>470893.5573181595</v>
+        <v>470893.5573181594</v>
       </c>
       <c r="J6" t="n">
-        <v>456331.7129863452</v>
+        <v>456331.7129863453</v>
       </c>
       <c r="K6" t="n">
-        <v>496969.1653685991</v>
+        <v>496969.1653685993</v>
       </c>
       <c r="L6" t="n">
-        <v>479969.9575896048</v>
+        <v>479969.9575896052</v>
       </c>
       <c r="M6" t="n">
-        <v>299878.9199558658</v>
+        <v>299878.9199558652</v>
       </c>
       <c r="N6" t="n">
-        <v>502047.0199485905</v>
+        <v>502047.0199485903</v>
       </c>
       <c r="O6" t="n">
-        <v>496921.136218217</v>
+        <v>496849.463228688</v>
       </c>
       <c r="P6" t="n">
-        <v>496921.1362182169</v>
+        <v>496849.4632286882</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G2" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="H2" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="I2" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="O2" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="P2" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076758</v>
+        <v>57.92057351076762</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022923</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>937.6805819743333</v>
+        <v>937.680581974333</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24900972374284</v>
+        <v>21.24900972374282</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72612689484978</v>
+        <v>25.72612689484974</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>21.24900972374282</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951226</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076758</v>
+        <v>57.92057351076762</v>
       </c>
       <c r="E3" t="n">
         <v>1031.856127082531</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2791265720408</v>
+        <v>106.2791265720404</v>
       </c>
       <c r="J4" t="n">
-        <v>76.65587923428109</v>
+        <v>76.65587923428166</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959706</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374284</v>
+        <v>21.24900972374282</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72612689484978</v>
+        <v>25.72612689484974</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>85.10723188858937</v>
+        <v>85.10723188858935</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.42270548643157</v>
+        <v>92.42270548643155</v>
       </c>
       <c r="S9" t="n">
         <v>169.3690802659312</v>
@@ -28032,10 +28032,10 @@
         <v>152.3094707112973</v>
       </c>
       <c r="J10" t="n">
-        <v>85.97478175284918</v>
+        <v>85.97478175284917</v>
       </c>
       <c r="K10" t="n">
-        <v>10.13465691657778</v>
+        <v>10.13465691657777</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292598</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28752,13 +28752,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>28.91388186835508</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>28.91388186835536</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="J22" t="n">
-        <v>28.91388186835562</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>28.91388186835582</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22414634233542</v>
+        <v>68.2241463423354</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>28.91388186835474</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.91388186835628</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.2241463423354</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859222</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810499</v>
+        <v>46.72521440565509</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="E37" t="n">
-        <v>55.47778196371064</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>55.47778196371242</v>
       </c>
       <c r="C40" t="n">
-        <v>45.392914587386</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810482</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>97.68472022810482</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="C41" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="D41" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="E41" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="F41" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="G41" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="H41" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="T41" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="U41" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="V41" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="W41" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="X41" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="C43" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="D43" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="E43" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="F43" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="G43" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="H43" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="I43" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.95859333325528</v>
+        <v>40.54593709771503</v>
       </c>
       <c r="S43" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="T43" t="n">
-        <v>40.54593709771191</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="U43" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="V43" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="W43" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="X43" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="C44" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="D44" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="E44" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="F44" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="G44" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="H44" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="T44" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="U44" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="V44" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="W44" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="X44" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>40.54593709771223</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="C46" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="D46" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="E46" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="F46" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="G46" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="H46" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="I46" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="S46" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="T46" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="U46" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="V46" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="W46" t="n">
-        <v>71.95859333325528</v>
+        <v>40.54593709771493</v>
       </c>
       <c r="X46" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.95859333325528</v>
+        <v>71.95859333325508</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2328465266764524</v>
+        <v>0.2328465266764526</v>
       </c>
       <c r="H8" t="n">
-        <v>2.384639491325219</v>
+        <v>2.38463949132522</v>
       </c>
       <c r="I8" t="n">
-        <v>8.97681571969394</v>
+        <v>8.976815719693947</v>
       </c>
       <c r="J8" t="n">
-        <v>19.76255789350557</v>
+        <v>19.76255789350559</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136771981</v>
+        <v>29.61895136771983</v>
       </c>
       <c r="L8" t="n">
-        <v>36.7449282584943</v>
+        <v>36.74492825849433</v>
       </c>
       <c r="M8" t="n">
-        <v>40.88581267727665</v>
+        <v>40.88581267727668</v>
       </c>
       <c r="N8" t="n">
-        <v>41.54738787119613</v>
+        <v>41.54738787119616</v>
       </c>
       <c r="O8" t="n">
-        <v>39.23202022155715</v>
+        <v>39.23202022155718</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423223</v>
+        <v>33.48362159423225</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.14480535763177</v>
+        <v>25.14480535763179</v>
       </c>
       <c r="R8" t="n">
-        <v>14.62654563133972</v>
+        <v>14.62654563133973</v>
       </c>
       <c r="S8" t="n">
-        <v>5.305990226639665</v>
+        <v>5.305990226639668</v>
       </c>
       <c r="T8" t="n">
-        <v>1.019285670526171</v>
+        <v>1.019285670526172</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01862772213411619</v>
+        <v>0.0186277221341162</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1245838750986322</v>
+        <v>0.1245838750986323</v>
       </c>
       <c r="H9" t="n">
-        <v>1.203217951610474</v>
+        <v>1.203217951610475</v>
       </c>
       <c r="I9" t="n">
-        <v>4.289400962825713</v>
+        <v>4.289400962825717</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429665</v>
+        <v>11.77044409429666</v>
       </c>
       <c r="K9" t="n">
-        <v>20.117563725905</v>
+        <v>20.11756372590502</v>
       </c>
       <c r="L9" t="n">
-        <v>27.05054709104292</v>
+        <v>27.05054709104294</v>
       </c>
       <c r="M9" t="n">
-        <v>31.56671256336833</v>
+        <v>31.56671256336835</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523592</v>
+        <v>32.40218951523594</v>
       </c>
       <c r="O9" t="n">
-        <v>29.64167312489254</v>
+        <v>29.64167312489256</v>
       </c>
       <c r="P9" t="n">
-        <v>23.79005593879056</v>
+        <v>23.79005593879058</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.90302237223943</v>
+        <v>15.90302237223944</v>
       </c>
       <c r="R9" t="n">
-        <v>7.735128666211568</v>
+        <v>7.735128666211573</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906609</v>
+        <v>2.314090837906611</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5021604439282584</v>
+        <v>0.5021604439282588</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008196307572278435</v>
+        <v>0.008196307572278442</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1044469358390891</v>
+        <v>0.1044469358390892</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9286282113693562</v>
+        <v>0.9286282113693569</v>
       </c>
       <c r="I10" t="n">
-        <v>3.141004215960971</v>
+        <v>3.141004215960973</v>
       </c>
       <c r="J10" t="n">
-        <v>7.384398363823597</v>
+        <v>7.384398363823602</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13483490930507</v>
+        <v>12.13483490930508</v>
       </c>
       <c r="L10" t="n">
-        <v>15.52841080647694</v>
+        <v>15.52841080647695</v>
       </c>
       <c r="M10" t="n">
-        <v>16.37253195157648</v>
+        <v>16.37253195157649</v>
       </c>
       <c r="N10" t="n">
-        <v>15.98322973617625</v>
+        <v>15.98322973617626</v>
       </c>
       <c r="O10" t="n">
-        <v>14.76309962205598</v>
+        <v>14.76309962205599</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63238213093855</v>
+        <v>12.63238213093856</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.746006600125904</v>
+        <v>8.746006600125911</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364858</v>
+        <v>4.696314042364862</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395761</v>
+        <v>1.820225236395762</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4462732713124714</v>
+        <v>0.4462732713124717</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005697105591223047</v>
+        <v>0.005697105591223051</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32561,7 +32561,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.7086478970249</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026443</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165877</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35574,7 +35574,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861326</v>
@@ -35583,7 +35583,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35811,16 +35811,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302271</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.794304803719</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>376.5472612618389</v>
       </c>
       <c r="N19" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>331.2670120909951</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36209,7 +36209,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525805</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>74.49229848142181</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
@@ -36291,7 +36291,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>331.2670120909955</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>212.8499349886466</v>
+        <v>289.8106929612684</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>937.6805819743333</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597755</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36525,16 +36525,16 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>373.7708280358948</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.3081204062499</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>586.4575900049479</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>461.2821719260102</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>825.9229012776185</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>614.8220211195497</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36996,16 +36996,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120761</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>455.0964568307183</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>521.1072324560751</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861327</v>
@@ -37242,7 +37242,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37306,7 +37306,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865553999</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193724</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923325</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
